--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_OV.xlsx
@@ -966,7 +966,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.7296135039775214</v>
+        <v>0.7296135039775213</v>
       </c>
       <c r="C36">
         <v>0.7967632679844017</v>
@@ -2054,7 +2054,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1.349150284739941</v>
+        <v>1.34915028473994</v>
       </c>
       <c r="C100">
         <v>1.199494951170613</v>
@@ -3210,7 +3210,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>1.366950446620803</v>
+        <v>1.366950446620802</v>
       </c>
       <c r="C168">
         <v>1.413327354535335</v>
@@ -5154,7 +5154,7 @@
         <v>0.7663004075405649</v>
       </c>
       <c r="D282">
-        <v>0.7939096311040713</v>
+        <v>0.7939096311040714</v>
       </c>
       <c r="E282">
         <v>0.8495168035855548</v>
@@ -8089,7 +8089,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>0.7758536035140017</v>
+        <v>0.7758536035140016</v>
       </c>
       <c r="C455">
         <v>0.7730723240522874</v>
@@ -8123,7 +8123,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>0.7758536035140016</v>
+        <v>0.7758536035140015</v>
       </c>
       <c r="C457">
         <v>0.7730723240522873</v>
@@ -8140,7 +8140,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>0.7758536035140017</v>
+        <v>0.7758536035140016</v>
       </c>
       <c r="C458">
         <v>0.7730723240522873</v>
@@ -8174,7 +8174,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>0.7758536035140017</v>
+        <v>0.7758536035140016</v>
       </c>
       <c r="C460">
         <v>0.7730723240522873</v>
@@ -8208,7 +8208,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>0.7758536035140017</v>
+        <v>0.7758536035140016</v>
       </c>
       <c r="C462">
         <v>0.7730723240522873</v>
@@ -8378,7 +8378,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>0.7758536035140018</v>
+        <v>0.7758536035140016</v>
       </c>
       <c r="C472">
         <v>0.7730723240522874</v>
